--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_36.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1917794.905395121</v>
+        <v>1952226.812798747</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17338441.47276634</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484448</v>
+        <v>278692.0725916861</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5941927.154241947</v>
+        <v>6032966.452301636</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317.3612439064081</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201034</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -668,7 +668,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>267.7357237463023</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +753,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194613</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>52.26638665539369</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>64.58216279976261</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201034</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>327.2879775827807</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>405.2707800525359</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.82088317609747</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T6" t="n">
         <v>128.8768572327044</v>
@@ -1063,7 +1063,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>34.06158462964585</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>41.26176538196303</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>163.27222165456</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1145,7 +1145,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>70.65123981551163</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1303,10 +1303,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>172.3486038310704</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884113</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>81.76665890159533</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225835</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>219.2875345484117</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>71.70323137788961</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225706</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791304972</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170487</v>
+        <v>24.34318456170442</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556909</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2251,7 +2251,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170487</v>
+        <v>24.34318456170442</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170516</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>41.94061297377375</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>56.72042565247619</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2770,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3199,7 +3199,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>419.2974898580662</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>431.0219631664185</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>428.8116020553074</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>426.6979124712953</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8496703728919</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>394.6447681409763</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4997680892234</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.0762701560089</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>215.1274699336993</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>253.8909947341608</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>356.2516956435193</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>398.0678151210845</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>412.2119538644899</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.4641775413506</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187.1613476098048</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>168.0970094796149</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>161.4801279485001</v>
+        <v>23.49600688719859</v>
       </c>
       <c r="E37" t="n">
-        <v>165.3213387897777</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>172.2008985758689</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>161.1962773024381</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>72.40241347252562</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>240.6815670353368</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>272.9095858174333</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>281.3468681262814</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>266.5670554475789</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1987521979292</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4063890570403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>419.2974898580662</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>431.0219631664185</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>428.8116020553074</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>426.6979124712953</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8496703728919</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>394.6447681409763</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>283.4997680892234</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.0762701560089</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>215.1274699336993</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>253.8909947341608</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>356.2516956435193</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>398.0678151210845</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>412.2119538644899</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.4641775413506</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>187.1613476098048</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>168.0970094796149</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>161.4801279485001</v>
+        <v>79.5854046174437</v>
       </c>
       <c r="E40" t="n">
-        <v>165.3213387897777</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>172.2008985758689</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>161.1962773024381</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>72.40241347252548</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>240.6815670353368</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>272.9095858174333</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>281.3468681262814</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>266.5670554475789</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1987521979292</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4063890570403</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>419.2974898580662</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>431.0219631664185</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>428.8116020553074</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>426.6979124712953</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8496703728919</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>394.6447681409763</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>283.4997680892234</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>7.503569422954486</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>253.8909947341608</v>
+        <v>256.6300796561535</v>
       </c>
       <c r="V41" t="n">
-        <v>356.2516956435193</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>398.0678151210845</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>412.2119538644899</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.4641775413506</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>187.1613476098048</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>168.0970094796149</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>161.4801279485001</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>165.3213387897777</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>172.2008985758689</v>
+        <v>130.6556207749486</v>
       </c>
       <c r="G43" t="n">
-        <v>161.1962773024381</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.46455815968938</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>53.93785531283567</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.6815670353368</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>272.9095858174333</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>281.3468681262814</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>266.5670554475789</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1987521979292</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4063890570403</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>419.2974898580662</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>431.0219631664185</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>428.8116020553074</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>426.6979124712953</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8496703728919</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>394.6447681409763</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>283.4997680892234</v>
+        <v>286.2388530112162</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>7.503569422953575</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>253.8909947341608</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>356.2516956435193</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>398.0678151210845</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>412.2119538644899</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.4641775413506</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>187.1613476098048</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>168.0970094796149</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>161.4801279485001</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>165.3213387897777</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>172.2008985758689</v>
+        <v>130.6556207749486</v>
       </c>
       <c r="G46" t="n">
-        <v>161.1962773024381</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>72.40241347252592</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.6815670353368</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>272.9095858174333</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>281.3468681262814</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>266.5670554475789</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1987521979292</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4063890570403</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>952.4132834144435</v>
+        <v>153.4764845146214</v>
       </c>
       <c r="C2" t="n">
-        <v>523.8316091517128</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>491.9622283665613</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2278875652605</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446827</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446827</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446827</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160827</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160827</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160827</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160827</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160827</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926496</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375519</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382454</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.029365327357</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080414</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080414</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080414</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531851</v>
+        <v>450.4214956153326</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.266320151566</v>
+        <v>179.9813706190676</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451219</v>
+        <v>175.7356509591251</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135928975</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295398</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760931</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030468</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192084</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539225</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160827</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160827</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>358.5019935678206</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>778.554892512723</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041172</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041172</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041172</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041172</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041172</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986074</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.727992528797</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859398</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.212801859367</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.095283921366</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>942.77252965456</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934399</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726607</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>707.7326516402957</v>
+        <v>122.603617826933</v>
       </c>
       <c r="C4" t="n">
-        <v>535.1709401235206</v>
+        <v>122.603617826933</v>
       </c>
       <c r="D4" t="n">
-        <v>369.2929473250433</v>
+        <v>122.603617826933</v>
       </c>
       <c r="E4" t="n">
-        <v>199.5349435757806</v>
+        <v>122.603617826933</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757806</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160827</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160827</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160827</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662981</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374337</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374337</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>815.334707282336</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>815.334707282336</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.48376124574</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216081</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1644.389100125471</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1644.389100125471</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1644.389100125471</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1372.362695711762</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>1126.970941045175</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>899.5512703592829</v>
+        <v>122.603617826933</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663116</v>
+        <v>975.4034379196303</v>
       </c>
       <c r="C5" t="n">
-        <v>418.0989517035808</v>
+        <v>941.3013691434576</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329724</v>
+        <v>909.4319883583062</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199648</v>
+        <v>475.6572435166014</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160827</v>
+        <v>451.8302179662132</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160827</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160827</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160827</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465107</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375519</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375519</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375519</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375519</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382454</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382454</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.029365327357</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080414</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080414</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080414</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080414</v>
+        <v>2178.745152974708</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080414</v>
+        <v>1816.128202908534</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531851</v>
+        <v>1411.272748319567</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111162</v>
+        <v>1001.908324024077</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.9397924108154</v>
+        <v>997.662604364134</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929011</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295433</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760966</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030503</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192119</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.6793207853958</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160827</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206588</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731807</v>
+        <v>401.054384716147</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041172</v>
+        <v>401.054384716147</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041172</v>
+        <v>401.054384716147</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041172</v>
+        <v>401.054384716147</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041172</v>
+        <v>431.6596472970919</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041172</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986074</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080414</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.095283921369</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545634</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934434</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726642</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>718.8484307043672</v>
+        <v>593.0357356940385</v>
       </c>
       <c r="C7" t="n">
-        <v>546.2867191875921</v>
+        <v>420.4740241772635</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4087263891148</v>
+        <v>254.5960313787861</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>84.8380276295234</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160827</v>
+        <v>84.8380276295234</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160827</v>
+        <v>84.8380276295234</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160827</v>
+        <v>84.8380276295234</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160827</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160827</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160827</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>341.7616130750559</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750559</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199582</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.48376124574</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216081</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080414</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080414</v>
+        <v>2500.201508179226</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080414</v>
+        <v>2340.960139477223</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080414</v>
+        <v>2095.080693055678</v>
       </c>
       <c r="U7" t="n">
-        <v>1655.504879189542</v>
+        <v>1816.647692308783</v>
       </c>
       <c r="V7" t="n">
-        <v>1655.504879189542</v>
+        <v>1529.692184179213</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.478474775834</v>
+        <v>1257.665779765505</v>
       </c>
       <c r="X7" t="n">
-        <v>1138.086720109246</v>
+        <v>1012.274025098917</v>
       </c>
       <c r="Y7" t="n">
-        <v>910.6670494233542</v>
+        <v>784.8543544130257</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.8413732171584</v>
+        <v>710.0264917116014</v>
       </c>
       <c r="C8" t="n">
-        <v>190.7393044409857</v>
+        <v>271.8840188950247</v>
       </c>
       <c r="D8" t="n">
-        <v>158.8699236558343</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>129.1355828545336</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>105.3085573041454</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>687.540662806093</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>1075.344177331261</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>670.4887227422939</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X8" t="n">
-        <v>251.3462593216046</v>
+        <v>1140.571781856452</v>
       </c>
       <c r="Y8" t="n">
-        <v>247.1005396616621</v>
+        <v>1136.326062196509</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>858.4638871896879</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>685.9021756729128</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>685.9021756729128</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1292.259348259376</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1523.093931261154</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1523.093931261154</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1277.702176594567</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1050.282505908675</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2233.422364273233</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1795.279891456656</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1359.3701066311</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>925.5953617893952</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>497.7279321986031</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>96.33010082186694</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>96.33010082186694</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.33010082186694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>382.9523907669558</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1217.302682725134</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2292.362648977993</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2292.362648977993</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2292.362648977993</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3272.542315548299</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4100.852190381695</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4647.35097634029</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4816.505041093346</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4733.91245634426</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4513.845229217299</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4254.622926534315</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3892.005976468142</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3487.150521879176</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3068.008058458487</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2659.72193475814</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.5018458131598</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.045384649802</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>400.9550957963553</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>306.834681123309</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.4508427394706</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.0657530056545</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.33010082186694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.3937739823245</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.397084206336</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.569862300676</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.114424749059</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1565.935781079661</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.599234079629</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.481716141628</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.158961874822</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.2915261137022</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>723.8057468929229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>946.8261378987979</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C13" t="n">
-        <v>774.2644263820231</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D13" t="n">
-        <v>608.3864335835458</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E13" t="n">
-        <v>438.6284298342831</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F13" t="n">
-        <v>261.9213757960393</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>96.33010082186694</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>96.33010082186694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.33010082186694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>182.9097859865568</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>457.6682405576926</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>875.8781223256536</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.361989506567</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.620792664211</v>
+        <v>1783.551532113125</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.290041889993</v>
+        <v>2203.220781338906</v>
       </c>
       <c r="P13" t="n">
-        <v>2544.796935860335</v>
+        <v>2550.727675309248</v>
       </c>
       <c r="Q13" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R13" t="n">
-        <v>2712.989710724667</v>
+        <v>2697.502628878952</v>
       </c>
       <c r="S13" t="n">
-        <v>2694.750541681982</v>
+        <v>2538.261260176949</v>
       </c>
       <c r="T13" t="n">
-        <v>2448.871095260437</v>
+        <v>2292.381813755404</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.438094513543</v>
+        <v>2292.381813755404</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.482586383973</v>
+        <v>2005.426305625834</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.456181970264</v>
+        <v>1733.399901212126</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.064427303677</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.644756617785</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.552518830016</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.410046013439</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.500261187884</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1214.725516346179</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>786.8580867553865</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>385.4602553786507</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>96.33010082186694</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.33010082186694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>382.9523907669558</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1217.302682725134</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2292.362648977993</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2292.362648977993</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2292.362648977993</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3272.542315548299</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4100.852190381695</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4647.35097634029</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>4816.505041093346</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4732.853167277183</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4512.785940150222</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4253.563637467239</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.136131024926</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.280676435959</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.13821301527</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2948.852089314923</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.5018458131598</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.045384649802</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>400.9550957963553</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>306.834681123309</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.4508427394706</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.0657530056545</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.33010082186694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.3937739823245</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>446.9520989485368</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1101.658145574261</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1101.658145574261</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.397084206336</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.569862300676</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.114424749059</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.935781079661</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.599234079629</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.481716141628</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.158961874822</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.2915261137022</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>723.8057468929229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>946.826137898798</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C16" t="n">
-        <v>774.264426382023</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D16" t="n">
-        <v>608.3864335835458</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E16" t="n">
-        <v>438.628429834283</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F16" t="n">
-        <v>261.9213757960393</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G16" t="n">
-        <v>96.33010082186694</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H16" t="n">
-        <v>96.33010082186694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.33010082186694</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>182.9097859865568</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>457.6682405576924</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>875.8781223256535</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.361989506566</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.620792664211</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.290041889992</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2544.796935860334</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.989710724667</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2694.750541681982</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2448.871095260437</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.438094513543</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.482586383973</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.456181970264</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.064427303677</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.644756617785</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436387</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5525,28 +5525,28 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R17" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V17" t="n">
         <v>4187.483659846699</v>
@@ -5571,16 +5571,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D18" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E18" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F18" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G18" t="n">
         <v>143.9964924545671</v>
@@ -5595,19 +5595,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883916</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716165</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731392</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>303.5569696238765</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>126.849915585633</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5738,10 +5738,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5762,22 +5762,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>3304.552472135277</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R20" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T20" t="n">
         <v>4809.322912595856</v>
@@ -5795,7 +5795,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5808,16 +5808,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G21" t="n">
         <v>143.9964924545671</v>
@@ -5832,19 +5832,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883917</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716167</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731393</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238767</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F22" t="n">
-        <v>126.849915585633</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5944,13 +5944,13 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
         <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.992967093271</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
         <v>1003.573296407379</v>
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6069,19 +6069,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883922</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716172</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731399</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238771</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856333</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6178,19 +6178,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303137</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759859</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="26">
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>590.5124777534459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>413.8054237152021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>248.2141487410298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="29">
@@ -6461,13 +6461,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
         <v>2588.899621423627</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6680,19 +6680,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436395</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6710,22 +6710,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423624</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.07928799393</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.389162827327</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785921</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538978</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722815</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
         <v>4809.322912595856</v>
@@ -6756,16 +6756,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
         <v>143.9964924545671</v>
@@ -6774,10 +6774,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312371</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
         <v>1107.588885023173</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324585</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831958</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8521152449519</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6856,7 +6856,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>188.8405254354694</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
         <v>463.598980006605</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2511.08373699563</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2075.70801662551</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1642.564984246412</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1211.556991851164</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>786.4563147068292</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>387.82523577655</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H35" t="n">
-        <v>101.4618336662233</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I35" t="n">
-        <v>101.4618336662233</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>101.4618336662233</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>935.8121256244013</v>
+        <v>388.1086717343205</v>
       </c>
       <c r="L35" t="n">
-        <v>2010.872091877261</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M35" t="n">
-        <v>2010.872091877261</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>3136.603075313707</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4116.782741884014</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4945.09261671741</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5073.091683311166</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5073.091683311166</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>4992.20656194146</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4774.906087260955</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4518.45053702443</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4158.600339404713</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3756.511637262203</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3340.135926287971</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2934.616555034081</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>607.6335786575161</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.1771174941584</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.0868286407116</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>311.9664139676653</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>228.582575583827</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.1974858500108</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>101.4618336662233</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>127.5255068266809</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.0838317928932</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1647.528817050692</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1764.701595145032</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.246157593415</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.067513924017</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1394.730966923985</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1195.613448985984</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.290694719178</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>855.4232589580585</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>728.9374797372792</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>938.1241085108695</v>
+        <v>1039.174348374283</v>
       </c>
       <c r="C37" t="n">
-        <v>768.3291494405515</v>
+        <v>866.6126368575082</v>
       </c>
       <c r="D37" t="n">
-        <v>605.2179090885312</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>438.2266577857255</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>264.2863561939387</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>101.4618336662233</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H37" t="n">
-        <v>101.4618336662233</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>101.4618336662233</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>190.7532129036857</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>468.2233615475938</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>889.1449373883274</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1351.340498642013</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1796.31099587243</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2218.691939170984</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2568.910527214098</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2739.814996151203</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2739.814996151203</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2666.681245168854</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2423.568551193766</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2147.902302893329</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1863.713547210216</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1594.453895242965</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1351.828893022834</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1127.1759747834</v>
+        <v>1230.99296709327</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2511.083736995631</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2075.708016625511</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1642.564984246413</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1211.556991851165</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>786.4563147068296</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>387.82523577655</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>101.4618336662233</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>101.4618336662233</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>101.4618336662233</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>517.3124062595622</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1592.372372512422</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1592.372372512422</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>2718.103355948869</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3698.283022519175</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4526.592897352571</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5073.091683311166</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5073.091683311166</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>4992.20656194146</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4774.906087260956</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4518.45053702443</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4158.600339404713</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3756.511637262203</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3340.135926287971</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2934.616555034082</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>607.6335786575161</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.1771174941584</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.0868286407116</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>311.9664139676653</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>228.582575583827</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.1974858500108</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>101.4618336662233</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>127.5255068266809</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.0838317928932</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1106.789878418617</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1106.789878418617</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1106.789878418617</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1106.789878418617</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1106.789878418617</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
-        <v>1106.789878418617</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1647.528817050692</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1764.701595145032</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.246157593415</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.067513924017</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1394.730966923985</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1195.613448985984</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.290694719178</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>855.4232589580585</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>728.9374797372792</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>938.1241085108697</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C40" t="n">
-        <v>768.3291494405516</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D40" t="n">
-        <v>605.2179090885311</v>
+        <v>537.3858472836108</v>
       </c>
       <c r="E40" t="n">
-        <v>438.2266577857255</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F40" t="n">
-        <v>264.2863561939387</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G40" t="n">
-        <v>101.4618336662233</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
-        <v>101.4618336662233</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
-        <v>101.4618336662233</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>190.7532129036857</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>468.2233615475938</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>889.1449373883274</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1351.340498642013</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1796.31099587243</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2218.691939170984</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2568.910527214098</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2739.814996151203</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2739.814996151203</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2666.681245168854</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2423.568551193766</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2147.902302893329</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1863.713547210216</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1594.453895242965</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1351.828893022835</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1127.1759747834</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2505.152997546717</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2069.777277176598</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1636.6342447975</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.626252402252</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>780.5255752579169</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>381.8944963276373</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>95.53109421731064</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>95.53109421731064</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>95.53109421731064</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>929.8813861754886</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2004.941352428348</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2004.941352428348</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>2252.412318750178</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3232.591985320485</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4060.901860153881</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4607.400646112475</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>4776.554710865532</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>4768.975347812043</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4768.975347812043</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4512.519797575516</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4152.6695999558</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3750.58089781329</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3334.205186839058</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2928.685815585168</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>601.7028392086035</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>495.2463780452457</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>400.156089191799</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>306.0356745187527</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>222.6518361349143</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>137.2667464010982</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>95.53109421731064</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>121.5947673777682</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>446.1530923439806</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1641.59807760178</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1758.770855696119</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1695.315418144502</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1565.136774475104</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1388.800227475072</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1189.682709537072</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1004.359955270266</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>849.4925195091458</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>723.0067402883666</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>932.1933690619569</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C43" t="n">
-        <v>762.3984099916388</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D43" t="n">
-        <v>599.2871696396185</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E43" t="n">
-        <v>432.2959183368127</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F43" t="n">
-        <v>258.3556167450259</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="G43" t="n">
-        <v>95.53109421731064</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H43" t="n">
-        <v>95.53109421731064</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>95.53109421731064</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>184.822473454773</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>462.2926220986813</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>883.2141979394148</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1345.4097591931</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1790.380256423517</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2212.761199722072</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2562.979787765186</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2733.884256702291</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2715.233187854119</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2660.750505719941</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2417.637811744853</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2141.971563444416</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>1857.782807761304</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1588.523155794052</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1345.898153573922</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1121.245235334487</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2505.152997546718</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2069.777277176598</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1636.6342447975</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1205.626252402252</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>780.5255752579167</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>381.8944963276373</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H44" t="n">
-        <v>95.53109421731064</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>95.53109421731064</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>530.7857816702285</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1365.136073628406</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2252.412318750178</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2252.412318750178</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2252.412318750178</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3232.591985320485</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4060.901860153881</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4607.400646112475</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4776.554710865532</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4776.554710865532</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4768.975347812044</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4512.519797575517</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4152.669599955801</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3750.58089781329</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3334.205186839058</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2928.685815585169</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>601.7028392086035</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>495.2463780452457</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>400.156089191799</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>306.0356745187527</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>222.6518361349143</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>137.2667464010982</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>95.53109421731064</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>121.5947673777682</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>446.1530923439806</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1100.859138969704</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1641.59807760178</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1758.770855696119</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1695.315418144502</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1565.136774475104</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1388.800227475072</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1189.682709537072</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1004.359955270266</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>849.4925195091458</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>723.0067402883666</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>932.1933690619564</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C46" t="n">
-        <v>762.3984099916383</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D46" t="n">
-        <v>599.2871696396182</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E46" t="n">
-        <v>432.2959183368125</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F46" t="n">
-        <v>258.3556167450259</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="G46" t="n">
-        <v>95.53109421731064</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H46" t="n">
-        <v>95.53109421731064</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>95.53109421731064</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>184.822473454773</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>462.2926220986811</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>883.2141979394148</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1345.4097591931</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1790.380256423517</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2212.761199722072</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2562.979787765186</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2733.884256702291</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2733.884256702291</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2660.750505719941</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2417.637811744853</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U46" t="n">
-        <v>2141.971563444416</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V46" t="n">
-        <v>1857.782807761303</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W46" t="n">
-        <v>1588.523155794052</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X46" t="n">
-        <v>1345.898153573921</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>1121.245235334487</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798397</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201034</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201035</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201035</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,16 +8052,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201034</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>385.2554146752007</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201035</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201034</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559633</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201035</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798397</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201035</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201035</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201035</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888797</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741901</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201035</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,16 +8374,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>310.9272166398461</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201034</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238379</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>289.5174645909988</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>289.5174645909988</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>866.28958202075</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9419,10 +9419,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,7 +10118,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>583.0591140826364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352419</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10428,7 +10428,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>288.735183296506</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10604,10 +10604,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>129.2919864583391</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>420.0510834276151</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,22 +10902,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>249.970673052354</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11300,13 +11300,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>896.2386314361333</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.048696176406025</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>23.65030257151</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>287.2875491876221</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627262</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627257</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627257</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>227.3655273957976</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>81.78272691405303</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>140.7232059832939</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>135.7640676445368</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.03426481107896</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.46455815968938</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>82.50745662046521</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>84.63380825304883</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>135.7640676445368</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>85.03426481107896</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.46455815968938</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>82.50745662046536</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>72.57270073305442</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>215.1274699336993</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>44.28436272291276</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>135.7640676445368</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>85.03426481107896</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>100.9720147801552</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.0762701560089</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>207.6239005107457</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>44.28436272291276</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>135.7640676445368</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>85.03426481107896</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.46455815968938</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>82.50745662046492</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>492518.1014789542</v>
+        <v>492518.1014789543</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>492518.1014789542</v>
+        <v>505200.4239022295</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>492518.1014789543</v>
+        <v>507483.9039481551</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>505491.504752767</v>
+        <v>528462.1855950098</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>505491.504752767</v>
+        <v>528462.1855950096</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>529322.1572105264</v>
+        <v>528462.1855950097</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>529322.1572105264</v>
+        <v>528462.1855950097</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>506351.4763682836</v>
+        <v>528462.1855950096</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>506351.4763682836</v>
+        <v>528462.1855950096</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>482532.5879013676</v>
+        <v>482532.5879013677</v>
       </c>
       <c r="C2" t="n">
         <v>482532.5879013677</v>
@@ -26320,10 +26320,10 @@
         <v>482532.5879013676</v>
       </c>
       <c r="E2" t="n">
-        <v>453560.9854970509</v>
+        <v>474171.8257236171</v>
       </c>
       <c r="F2" t="n">
-        <v>453560.9854970507</v>
+        <v>474171.825723617</v>
       </c>
       <c r="G2" t="n">
         <v>474171.8257236169</v>
@@ -26344,16 +26344,16 @@
         <v>474171.825723617</v>
       </c>
       <c r="M2" t="n">
-        <v>475582.3484010749</v>
+        <v>474171.825723617</v>
       </c>
       <c r="N2" t="n">
-        <v>475582.3484010749</v>
+        <v>474171.825723617</v>
       </c>
       <c r="O2" t="n">
-        <v>454971.5081745088</v>
+        <v>474171.825723617</v>
       </c>
       <c r="P2" t="n">
-        <v>454971.5081745086</v>
+        <v>474171.825723617</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597096</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501615</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998278</v>
       </c>
       <c r="E3" t="n">
-        <v>232840.2019932546</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>20319.08402319041</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.46534499</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877251</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622321</v>
       </c>
       <c r="M3" t="n">
-        <v>194039.1781017875</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205960.972841867</v>
+        <v>205960.9728418668</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.972841867</v>
+        <v>171472.7657924762</v>
       </c>
       <c r="D4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>77899.63530116339</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="F4" t="n">
-        <v>77899.63530116339</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904286</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>81439.5714690428</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
-        <v>83624.93309472327</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="N4" t="n">
-        <v>83624.93309472327</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="O4" t="n">
-        <v>80084.99692684381</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="P4" t="n">
-        <v>80084.99692684381</v>
+        <v>81439.57146904283</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722229</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722229</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73210.87662461886</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>73210.87662461886</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26497,19 +26497,19 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.23860579246</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77341.2657166367</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77341.2657166367</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>72833.90373546307</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>72833.90373546307</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74955.52626256878</v>
+        <v>74955.52626256863</v>
       </c>
       <c r="C6" t="n">
-        <v>217146.8269222784</v>
+        <v>172515.8404058728</v>
       </c>
       <c r="D6" t="n">
-        <v>217146.8269222784</v>
+        <v>231529.3795300687</v>
       </c>
       <c r="E6" t="n">
-        <v>69610.27157801401</v>
+        <v>132635.6820883495</v>
       </c>
       <c r="F6" t="n">
-        <v>302450.4735712684</v>
+        <v>314990.791309399</v>
       </c>
       <c r="G6" t="n">
-        <v>294694.9316255912</v>
+        <v>314990.7913093989</v>
       </c>
       <c r="H6" t="n">
-        <v>315014.0156487817</v>
+        <v>314990.791309399</v>
       </c>
       <c r="I6" t="n">
-        <v>315014.0156487817</v>
+        <v>314990.7913093989</v>
       </c>
       <c r="J6" t="n">
-        <v>203999.5503037916</v>
+        <v>203976.3259644089</v>
       </c>
       <c r="K6" t="n">
-        <v>315014.0156487817</v>
+        <v>261944.9366706266</v>
       </c>
       <c r="L6" t="n">
-        <v>315014.0156487817</v>
+        <v>305598.4895827767</v>
       </c>
       <c r="M6" t="n">
-        <v>120576.9714879275</v>
+        <v>162790.6203714115</v>
       </c>
       <c r="N6" t="n">
-        <v>314616.1495897149</v>
+        <v>314990.791309399</v>
       </c>
       <c r="O6" t="n">
-        <v>302052.6075122019</v>
+        <v>314990.791309399</v>
       </c>
       <c r="P6" t="n">
-        <v>302052.6075122017</v>
+        <v>314990.791309399</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201034</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201034</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1204.126260273337</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1204.126260273337</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26817,19 +26817,19 @@
         <v>1278.260503384745</v>
       </c>
       <c r="L4" t="n">
-        <v>1278.260503384744</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1268.272920827791</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1268.272920827791</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1194.138677716383</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1194.138677716383</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201034</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="E4" t="n">
-        <v>779.8304027532322</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>74.13424311140852</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201037</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
-        <v>769.8428201962793</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201034</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
-        <v>779.8304027532322</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>74.13424311140852</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104.6753308736506</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568307492</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,7 +27388,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>147.2153150401801</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>191.1542653019356</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>160.5633111792702</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568307492</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>104.2627093945192</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9.680258733946516</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -27792,7 +27792,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>53.71176510342556</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>234.3869053574627</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>268.2784653227399</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>326.7326132474571</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>111.7373492172034</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.739084921992458</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="V41" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.739084921992458</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.739084921992458</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798397</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201034</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201035</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201035</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201034</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>385.2554146752007</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201035</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201034</v>
+        <v>409.401749030468</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559633</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201035</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798397</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201035</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201035</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201035</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888797</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741901</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201035</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>310.9272166398461</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201034</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238379</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>289.5174645909988</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35419,7 +35419,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956017</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512945</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>289.5174645909988</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>866.28958202075</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36139,10 +36139,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>583.0591140826364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352419</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37306,7 +37306,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>288.735183296506</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37324,10 +37324,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>129.2919864583391</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>661.3192390158824</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>90.19331236107313</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
-        <v>280.272877418089</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>425.173308930034</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>466.8642032865512</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>449.4651487175931</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>426.6474174732866</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>353.7561495384994</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>172.6307767041462</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>420.0510834276151</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>90.19331236107313</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
-        <v>280.272877418089</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>425.173308930034</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>466.8642032865512</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>449.4651487175931</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>426.6474174732866</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>353.7561495384994</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>172.6307767041462</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
-        <v>249.970673052354</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>90.19331236107315</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
-        <v>280.2728774180891</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>425.1733089300338</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>466.8642032865513</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>449.4651487175929</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>426.6474174732869</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>353.7561495384994</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>172.6307767041462</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,13 +38020,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>896.2386314361333</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>90.19331236107313</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
-        <v>280.2728774180889</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>425.1733089300341</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>466.8642032865511</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>449.4651487175931</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>426.6474174732869</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>353.7561495384994</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>172.6307767041462</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
